--- a/data/trans_bre/P5_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_7-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>-1,89%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,39</t>
+          <t>-5,01; 1,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 0,57</t>
+          <t>-6,81; 0,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,36</t>
+          <t>-5,08; 1,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,58</t>
+          <t>-7,03; 0,62</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,93</t>
+          <t>1,35; 8,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 19,3</t>
+          <t>2,06; 24,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,87</t>
+          <t>1,37; 8,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 24,43</t>
+          <t>2,07; 31,75</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>-3,34%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,35</t>
+          <t>-4,84; 0,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -0,49</t>
+          <t>-6,39; -0,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,37</t>
+          <t>-4,89; 0,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -0,55</t>
+          <t>-6,48; -0,87</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,79</t>
+          <t>-1,33; 3,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,11</t>
+          <t>-1,44; 3,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,02</t>
+          <t>-1,36; 4,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,34</t>
+          <t>-1,47; 4,08</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-1,45%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,71</t>
+          <t>-3,66; 1,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,15</t>
+          <t>-4,91; 1,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,75</t>
+          <t>-3,71; 1,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,21</t>
+          <t>-4,99; 1,88</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>-0,02%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,62</t>
+          <t>-1,63; 2,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,68</t>
+          <t>-2,48; 2,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,72</t>
+          <t>-1,64; 2,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 1,71</t>
+          <t>-2,5; 2,92</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,42</t>
+          <t>-0,83; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,32</t>
+          <t>-1,06; 2,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,46</t>
+          <t>-0,84; 1,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,46</t>
+          <t>-1,08; 3,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_7-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,89%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.7295242649701938</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.895427318262921</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.007373203091018269</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.0190655713884421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 1,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 0,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 1,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 0,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.007313954146593</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.230006638845864</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.05077709507102339</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.0727079506614801</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.509274637573737</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4937996714080108</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.01540980580073762</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.004981724252947212</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 8,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 24,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 8,96</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 31,75</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.579162599655174</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.61039147040462</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.04842875893745859</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.07223145295716096</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,23%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.345042485673737</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.9225867157919029</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.01373736218636618</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.009582873756694801</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 0,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,39; -0,85</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 0,56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; -0,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.172269206801474</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.29410347685256</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.08957050589560593</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2320582515704078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.183459174993418</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.280651782900257</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.02229263433396437</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.03322314112830752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 3,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 3,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 4,0</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 4,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.838906721248057</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.659725675065204</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.04886451894929097</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.06715920359744691</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.5528034953009304</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.8766223388693604</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.00562661805864118</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-0.008935534834089905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,71%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 1,77</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 1,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 1,84</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 1,88</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.000144252517055</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.178077132270006</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01032459632431843</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01214678376063294</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.333096159107685</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.302483081602251</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.01360641681167928</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.01307613165566956</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 2,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 2,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 2,86</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 2,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.771524758139734</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.260609232385572</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.03998471634345031</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.04501765842540074</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,37%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.6988198906908938</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.8368464318027846</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.007121662696867227</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.008611196750327777</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 1,44</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 2,94</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 1,49</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 3,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.65788918154438</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.22495708497635</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.03706107604633968</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.04332673758839205</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1.7650677933846</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.614364359379597</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.01837240431796406</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.0275315048569804</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.2853928987293308</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.6536888327518087</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.002909619415390365</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.006640963336323451</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-1.625971518195519</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-3.999420468547599</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.01639523026421963</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.04038471624998486</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>2.744154730120167</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.012673793089518</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02855746033273763</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.0208171149457824</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.3403724081671222</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1629429778954083</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.003494945369632554</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.001678992860529941</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.8251426755580367</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.315579153736876</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.00842979445759388</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.01337158265168073</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.444774418964237</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.291783604606429</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.014941517998419</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.02403630390052533</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
